--- a/Common/Excel/Datas/__enums__.xlsx
+++ b/Common/Excel/Datas/__enums__.xlsx
@@ -1,218 +1,309 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C2B990-FCD7-4376-9E19-8C4DC3400C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="585" windowWidth="17640" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+  </si>
   <si>
     <t>枚举名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>item.EQuality</t>
+  </si>
+  <si>
+    <t>WHITE</t>
   </si>
   <si>
     <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差品质</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>蓝色的</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>紫色的</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>红</t>
   </si>
   <si>
     <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test.AccessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRUNCATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>READ_WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WRITE|READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.EQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位标记使用示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +312,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,22 +513,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -269,17 +788,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -361,26 +924,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -413,23 +959,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,66 +1100,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -638,53 +1162,53 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="99" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -693,63 +1217,63 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:10">
       <c r="G5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:10">
       <c r="G6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:10">
       <c r="G7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -758,53 +1282,53 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:9">
       <c r="G9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:9">
       <c r="G10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:9">
       <c r="G11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:10">
       <c r="G12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Common/Excel/Datas/__enums__.xlsx
+++ b/Common/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,43 @@
   </si>
   <si>
     <t>位标记使用示例</t>
+  </si>
+  <si>
+    <t>#卡片类型</t>
+  </si>
+  <si>
+    <t>card.ECardType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALET
+</t>
+  </si>
+  <si>
+    <t>侍从</t>
+  </si>
+  <si>
+    <t>ATKMAGIC</t>
+  </si>
+  <si>
+    <t>攻击类型的魔法</t>
+  </si>
+  <si>
+    <t>CUREMAGIC</t>
+  </si>
+  <si>
+    <t>治疗魔法</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>英雄</t>
   </si>
 </sst>
 </file>
@@ -143,14 +180,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,12 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,48 +653,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,101 +707,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,6 +809,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1120,7 +1147,7 @@
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="12.125" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
@@ -1321,6 +1348,90 @@
       </c>
       <c r="J12" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="2:10">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10">
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Common/Excel/Datas/__enums__.xlsx
+++ b/Common/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="22185" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -133,14 +133,10 @@
     <t>位标记使用示例</t>
   </si>
   <si>
-    <t>#卡片类型</t>
-  </si>
-  <si>
-    <t>card.ECardType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALET
-</t>
+    <t>Cards.ECardType</t>
+  </si>
+  <si>
+    <t>VALET</t>
   </si>
   <si>
     <t>侍从</t>
@@ -1136,7 +1132,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1350,14 +1346,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" ht="17" customHeight="1" spans="2:10">
+      <c r="B14" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="23" customHeight="1" spans="2:10">
-      <c r="B14" t="s">
-        <v>40</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1366,72 +1357,72 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
         <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
       </c>
       <c r="I14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="7:10">
       <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
         <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="7:10">
       <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
         <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
       </c>
       <c r="I17">
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
         <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Common/Excel/Datas/__enums__.xlsx
+++ b/Common/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="12390"/>
+    <workbookView windowWidth="13875" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>##var</t>
   </si>
@@ -133,37 +133,226 @@
     <t>位标记使用示例</t>
   </si>
   <si>
+    <t>##卡片类型</t>
+  </si>
+  <si>
     <t>Cards.ECardType</t>
   </si>
   <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>ATKMAGIC</t>
+  </si>
+  <si>
+    <t>法术卡</t>
+  </si>
+  <si>
+    <t>HEROSKILL</t>
+  </si>
+  <si>
+    <t>英雄技能卡</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
     <t>VALET</t>
   </si>
   <si>
     <t>侍从</t>
   </si>
   <si>
-    <t>ATKMAGIC</t>
-  </si>
-  <si>
-    <t>攻击类型的魔法</t>
-  </si>
-  <si>
-    <t>CUREMAGIC</t>
-  </si>
-  <si>
-    <t>治疗魔法</t>
-  </si>
-  <si>
-    <t>WEAPON</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>HERO</t>
-  </si>
-  <si>
-    <t>英雄</t>
+    <t>##种族</t>
+  </si>
+  <si>
+    <t>Cards.ECardRace</t>
+  </si>
+  <si>
+    <t>BEAST</t>
+  </si>
+  <si>
+    <t>野兽</t>
+  </si>
+  <si>
+    <t>DEMON</t>
+  </si>
+  <si>
+    <t>妖？</t>
+  </si>
+  <si>
+    <t>DRAGON</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>MURLOC</t>
+  </si>
+  <si>
+    <t>鱼人</t>
+  </si>
+  <si>
+    <t>PIRATE</t>
+  </si>
+  <si>
+    <t>海岛</t>
+  </si>
+  <si>
+    <t>TOTEM</t>
+  </si>
+  <si>
+    <t>图腾</t>
+  </si>
+  <si>
+    <t>##职业</t>
+  </si>
+  <si>
+    <t>Cards.ECardClass</t>
+  </si>
+  <si>
+    <t>任何职业</t>
+  </si>
+  <si>
+    <t>WARRIOR</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>PALADIN</t>
+  </si>
+  <si>
+    <t>圣骑士</t>
+  </si>
+  <si>
+    <t>HUNTER</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>ROGUE</t>
+  </si>
+  <si>
+    <t>恶人？</t>
+  </si>
+  <si>
+    <t>PRIEST</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>SHAMA</t>
+  </si>
+  <si>
+    <t>萨满</t>
+  </si>
+  <si>
+    <t>MAGE</t>
+  </si>
+  <si>
+    <t>魔法师</t>
+  </si>
+  <si>
+    <t>WARLOCK</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>DRUID</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>##卡片套类型</t>
+  </si>
+  <si>
+    <t>Cards.ECardSet</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>基本</t>
+  </si>
+  <si>
+    <t>EXPERT</t>
+  </si>
+  <si>
+    <t>专家</t>
+  </si>
+  <si>
+    <t>REWARD</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>MISSION</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>##卡牌品质</t>
+  </si>
+  <si>
+    <t>Cards.ECardQuality</t>
+  </si>
+  <si>
+    <t>任何</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>免费</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>RARE</t>
+  </si>
+  <si>
+    <t>罕见</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>LENGENDARY</t>
+  </si>
+  <si>
+    <t>传说</t>
   </si>
 </sst>
 </file>
@@ -1129,14 +1318,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
@@ -1346,9 +1536,24 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
     <row r="14" ht="17" customHeight="1" spans="2:10">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1356,73 +1561,643 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>40</v>
+      <c r="G14" t="s">
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="7:10">
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="7:10">
       <c r="G16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="J18" t="s">
-        <v>49</v>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10">
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10">
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10">
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10">
+      <c r="G36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10">
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10">
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10">
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10">
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10">
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10">
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10">
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10">
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
+      <c r="G51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
+      <c r="G55" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
+      <c r="G56" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" t="s">
+        <v>112</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
